--- a/Encoding_Recall/Practice_Encoding_Recall.xlsx
+++ b/Encoding_Recall/Practice_Encoding_Recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassl\OneDrive - Lund University\Biofinder\fMRI-tasks\FacesNamesProfessions_fMRI\Encoding_Recall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765CB158-DED6-49D7-AE13-842EEB013A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E551B9-9050-4C89-9981-721314B0B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="11890" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-160" yWindow="9670" windowWidth="19360" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>StimFile</t>
   </si>
@@ -50,30 +50,18 @@
     <t>Tommy</t>
   </si>
   <si>
-    <t>Linus</t>
-  </si>
-  <si>
     <t>Johannes</t>
   </si>
   <si>
     <t>Edvin</t>
   </si>
   <si>
-    <t>Tobias</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>Skådespelare</t>
   </si>
   <si>
-    <t>Kemist</t>
-  </si>
-  <si>
-    <t>Präst</t>
-  </si>
-  <si>
     <t>Images_Faces/P1.jpg</t>
   </si>
   <si>
@@ -83,12 +71,6 @@
     <t>Images_Faces/P3.jpg</t>
   </si>
   <si>
-    <t>Images_Faces/P4.jpg</t>
-  </si>
-  <si>
-    <t>Images_Faces/P5.jpg</t>
-  </si>
-  <si>
     <t>Images_Faces/P6.jpg</t>
   </si>
   <si>
@@ -96,12 +78,6 @@
   </si>
   <si>
     <t>Images_Faces/P8.jpg</t>
-  </si>
-  <si>
-    <t>Images_Faces/P9.jpg</t>
-  </si>
-  <si>
-    <t>Images_Faces/P10.jpg</t>
   </si>
   <si>
     <t>Dörrvakt</t>
@@ -442,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +445,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -480,10 +456,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -491,10 +467,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -502,80 +478,48 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
@@ -619,17 +563,17 @@
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
@@ -690,18 +634,6 @@
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
